--- a/all season cleaned data/bowlerset_ipl.xlsx
+++ b/all season cleaned data/bowlerset_ipl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned all season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/all season cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155F0C5D-CDF6-D645-AD79-1BB425774C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CF715D-97FD-2B4B-8B64-D37F10A9F6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/all season cleaned data/bowlerset_ipl.xlsx
+++ b/all season cleaned data/bowlerset_ipl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/all season cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CF715D-97FD-2B4B-8B64-D37F10A9F6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AC9748-769C-0843-A361-6E611A8B6E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,7 +923,7 @@
   <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -978,43 +978,43 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2">
-        <v>641.4</v>
+        <v>679.1</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>5108</v>
+        <v>4571</v>
       </c>
       <c r="H2" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I2" s="2">
-        <v>26.6</v>
+        <v>25.39</v>
       </c>
       <c r="J2" s="2">
-        <v>7.96</v>
+        <v>6.73</v>
       </c>
       <c r="K2" s="2">
-        <v>20</v>
+        <v>22.6</v>
       </c>
       <c r="L2" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>16</v>
@@ -1022,43 +1022,43 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="D3" s="2">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2">
-        <v>384.5</v>
+        <v>651.4</v>
       </c>
       <c r="F3" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2">
-        <v>3172</v>
+        <v>4929</v>
       </c>
       <c r="H3" s="2">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="I3" s="2">
-        <v>34.47</v>
+        <v>27.23</v>
       </c>
       <c r="J3" s="2">
-        <v>8.24</v>
+        <v>7.56</v>
       </c>
       <c r="K3" s="2">
-        <v>25</v>
+        <v>21.6</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>16</v>
@@ -1066,171 +1066,173 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="D4" s="2">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="E4" s="2">
-        <v>561.5</v>
+        <v>641.4</v>
       </c>
       <c r="F4" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>4145</v>
+        <v>5108</v>
       </c>
       <c r="H4" s="2">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="I4" s="2">
-        <v>23.82</v>
+        <v>26.6</v>
       </c>
       <c r="J4" s="2">
-        <v>7.37</v>
+        <v>7.96</v>
       </c>
       <c r="K4" s="2">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2">
+        <v>159</v>
+      </c>
+      <c r="E5" s="2">
+        <v>586.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4602</v>
+      </c>
+      <c r="H5" s="2">
+        <v>205</v>
+      </c>
+      <c r="I5" s="2">
+        <v>22.44</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="K5" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="L5" s="2">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>66</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="J5" s="2">
-        <v>8.25</v>
-      </c>
-      <c r="K5" s="2">
-        <v>12</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
       <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="E6" s="2">
-        <v>249.1</v>
+        <v>561.5</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2">
-        <v>2087</v>
+        <v>4145</v>
       </c>
       <c r="H6" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="I6" s="2">
-        <v>27.46</v>
+        <v>23.82</v>
       </c>
       <c r="J6" s="2">
-        <v>8.3699999999999992</v>
+        <v>7.37</v>
       </c>
       <c r="K6" s="2">
-        <v>19.600000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="L6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E7" s="2">
-        <v>508.2</v>
+        <v>508.5</v>
       </c>
       <c r="F7" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2">
-        <v>4317</v>
+        <v>3715</v>
       </c>
       <c r="H7" s="2">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="I7" s="2">
-        <v>29.97</v>
+        <v>22.51</v>
       </c>
       <c r="J7" s="2">
-        <v>8.49</v>
+        <v>7.3</v>
       </c>
       <c r="K7" s="2">
-        <v>21.1</v>
+        <v>18.5</v>
       </c>
       <c r="L7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>16</v>
@@ -1238,43 +1240,43 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="D8" s="2">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E8" s="2">
-        <v>355.1</v>
+        <v>508.2</v>
       </c>
       <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4317</v>
+      </c>
+      <c r="H8" s="2">
+        <v>144</v>
+      </c>
+      <c r="I8" s="2">
+        <v>29.97</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8.49</v>
+      </c>
+      <c r="K8" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="G8" s="2">
-        <v>3189</v>
-      </c>
-      <c r="H8" s="2">
-        <v>99</v>
-      </c>
-      <c r="I8" s="2">
-        <v>32.21</v>
-      </c>
-      <c r="J8" s="2">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="K8" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
       <c r="M8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>16</v>
@@ -1282,40 +1284,40 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2">
-        <v>201</v>
+        <v>476.3</v>
       </c>
       <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3252</v>
+      </c>
+      <c r="H9" s="2">
+        <v>149</v>
+      </c>
+      <c r="I9" s="2">
+        <v>21.82</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="K9" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L9" s="2">
         <v>2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1742</v>
-      </c>
-      <c r="H9" s="2">
-        <v>47</v>
-      </c>
-      <c r="I9" s="2">
-        <v>37.06</v>
-      </c>
-      <c r="J9" s="2">
-        <v>8.66</v>
-      </c>
-      <c r="K9" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1326,43 +1328,43 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2">
-        <v>120.3</v>
+        <v>470.2</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2">
-        <v>937</v>
+        <v>3709</v>
       </c>
       <c r="H10" s="2">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="I10" s="2">
-        <v>26.77</v>
+        <v>27.07</v>
       </c>
       <c r="J10" s="2">
-        <v>7.77</v>
+        <v>7.88</v>
       </c>
       <c r="K10" s="2">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>16</v>
@@ -1370,43 +1372,43 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="E11" s="2">
-        <v>651.4</v>
+        <v>404.2</v>
       </c>
       <c r="F11" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2">
-        <v>4929</v>
+        <v>3412</v>
       </c>
       <c r="H11" s="2">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="I11" s="2">
-        <v>27.23</v>
+        <v>26.86</v>
       </c>
       <c r="J11" s="2">
-        <v>7.56</v>
+        <v>8.43</v>
       </c>
       <c r="K11" s="2">
-        <v>21.6</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L11" s="2">
         <v>2</v>
       </c>
       <c r="M11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>16</v>
@@ -1414,43 +1416,43 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2">
-        <v>679.1</v>
+        <v>389.3</v>
       </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2">
-        <v>4571</v>
+        <v>3230</v>
       </c>
       <c r="H12" s="2">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="I12" s="2">
-        <v>25.39</v>
+        <v>26.69</v>
       </c>
       <c r="J12" s="2">
-        <v>6.73</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="K12" s="2">
-        <v>22.6</v>
+        <v>19.3</v>
       </c>
       <c r="L12" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>16</v>
@@ -1458,37 +1460,37 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="D13" s="2">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2">
-        <v>88.1</v>
+        <v>384.5</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13" s="2">
-        <v>814</v>
+        <v>3172</v>
       </c>
       <c r="H13" s="2">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I13" s="2">
-        <v>33.909999999999997</v>
+        <v>34.47</v>
       </c>
       <c r="J13" s="2">
-        <v>9.23</v>
+        <v>8.24</v>
       </c>
       <c r="K13" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -1502,43 +1504,43 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E14" s="2">
-        <v>201.3</v>
+        <v>375.3</v>
       </c>
       <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3256</v>
+      </c>
+      <c r="H14" s="2">
+        <v>132</v>
+      </c>
+      <c r="I14" s="2">
+        <v>24.66</v>
+      </c>
+      <c r="J14" s="2">
+        <v>8.67</v>
+      </c>
+      <c r="K14" s="2">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="2">
-        <v>1739</v>
-      </c>
-      <c r="H14" s="2">
-        <v>58</v>
-      </c>
-      <c r="I14" s="2">
-        <v>29.98</v>
-      </c>
-      <c r="J14" s="2">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="K14" s="2">
-        <v>20.8</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>16</v>
@@ -1546,43 +1548,43 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2">
-        <v>404.2</v>
+        <v>355.1</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
       </c>
       <c r="G15" s="2">
-        <v>3412</v>
+        <v>3189</v>
       </c>
       <c r="H15" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2">
-        <v>26.86</v>
+        <v>32.21</v>
       </c>
       <c r="J15" s="2">
-        <v>8.43</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="K15" s="2">
-        <v>19.100000000000001</v>
+        <v>21.5</v>
       </c>
       <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <v>2</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>16</v>
@@ -1590,43 +1592,43 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2">
-        <v>586.5</v>
+        <v>326.2</v>
       </c>
       <c r="F16" s="2">
         <v>4</v>
       </c>
       <c r="G16" s="2">
-        <v>4602</v>
+        <v>2822</v>
       </c>
       <c r="H16" s="2">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="I16" s="2">
-        <v>22.44</v>
+        <v>30.34</v>
       </c>
       <c r="J16" s="2">
-        <v>7.84</v>
+        <v>8.64</v>
       </c>
       <c r="K16" s="2">
-        <v>17.100000000000001</v>
+        <v>21</v>
       </c>
       <c r="L16" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>16</v>
@@ -1634,43 +1636,43 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2">
-        <v>508.5</v>
+        <v>303</v>
       </c>
       <c r="F17" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2">
-        <v>3715</v>
+        <v>2570</v>
       </c>
       <c r="H17" s="2">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="I17" s="2">
-        <v>22.51</v>
+        <v>21.96</v>
       </c>
       <c r="J17" s="2">
-        <v>7.3</v>
+        <v>8.48</v>
       </c>
       <c r="K17" s="2">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="L17" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>16</v>
@@ -1678,43 +1680,43 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2">
-        <v>470.2</v>
+        <v>291</v>
       </c>
       <c r="F18" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>3709</v>
+        <v>2388</v>
       </c>
       <c r="H18" s="2">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="I18" s="2">
-        <v>27.07</v>
+        <v>27.44</v>
       </c>
       <c r="J18" s="2">
-        <v>7.88</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K18" s="2">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>16</v>
@@ -1722,43 +1724,43 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2">
-        <v>375.3</v>
+        <v>278.10000000000002</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19" s="2">
-        <v>3256</v>
+        <v>2221</v>
       </c>
       <c r="H19" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="I19" s="2">
-        <v>24.66</v>
+        <v>28.84</v>
       </c>
       <c r="J19" s="2">
-        <v>8.67</v>
+        <v>7.98</v>
       </c>
       <c r="K19" s="2">
-        <v>17</v>
+        <v>21.6</v>
       </c>
       <c r="L19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>16</v>
@@ -1766,37 +1768,37 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2">
-        <v>165.1</v>
+        <v>277.2</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>1349</v>
+        <v>2141</v>
       </c>
       <c r="H20" s="2">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I20" s="2">
-        <v>25.94</v>
+        <v>28.54</v>
       </c>
       <c r="J20" s="2">
-        <v>8.16</v>
+        <v>7.71</v>
       </c>
       <c r="K20" s="2">
-        <v>19</v>
+        <v>22.1</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -1810,37 +1812,37 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2">
-        <v>138.30000000000001</v>
+        <v>249.1</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>1137</v>
+        <v>2087</v>
       </c>
       <c r="H21" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I21" s="2">
-        <v>22.29</v>
+        <v>27.46</v>
       </c>
       <c r="J21" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="K21" s="2">
-        <v>16.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L21" s="2">
         <v>2</v>
@@ -1854,37 +1856,37 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2">
-        <v>70</v>
+        <v>235.1</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>602</v>
+        <v>1836</v>
       </c>
       <c r="H22" s="2">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="I22" s="2">
-        <v>31.68</v>
+        <v>29.14</v>
       </c>
       <c r="J22" s="2">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="K22" s="2">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -1898,79 +1900,81 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E23" s="2">
-        <v>49.2</v>
+        <v>227.2</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>440</v>
+        <v>2052</v>
       </c>
       <c r="H23" s="2">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I23" s="2">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="J23" s="2">
-        <v>8.91</v>
+        <v>9.02</v>
       </c>
       <c r="K23" s="2">
-        <v>18.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2">
-        <v>389.3</v>
+        <v>222.5</v>
       </c>
       <c r="F24" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2">
-        <v>3230</v>
+        <v>1969</v>
       </c>
       <c r="H24" s="2">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="I24" s="2">
-        <v>26.69</v>
+        <v>29.38</v>
       </c>
       <c r="J24" s="2">
-        <v>8.2899999999999991</v>
+        <v>8.83</v>
       </c>
       <c r="K24" s="2">
-        <v>19.3</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -1984,40 +1988,40 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2">
-        <v>20</v>
+        <v>222.3</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>181</v>
+        <v>1974</v>
       </c>
       <c r="H25" s="2">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2">
-        <v>60.33</v>
+        <v>26.67</v>
       </c>
       <c r="J25" s="2">
-        <v>9.0500000000000007</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="K25" s="2">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -2028,40 +2032,40 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2">
-        <v>34.299999999999997</v>
+        <v>216.2</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2">
-        <v>327</v>
+        <v>1762</v>
       </c>
       <c r="H26" s="2">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="I26" s="2">
-        <v>46.71</v>
+        <v>28.88</v>
       </c>
       <c r="J26" s="2">
-        <v>9.4700000000000006</v>
+        <v>8.14</v>
       </c>
       <c r="K26" s="2">
-        <v>29.5</v>
+        <v>21.2</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -2072,37 +2076,37 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2">
-        <v>145</v>
+        <v>212.4</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2">
-        <v>1162</v>
+        <v>1881</v>
       </c>
       <c r="H27" s="2">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I27" s="2">
-        <v>33.200000000000003</v>
+        <v>25.41</v>
       </c>
       <c r="J27" s="2">
-        <v>8.01</v>
+        <v>8.84</v>
       </c>
       <c r="K27" s="2">
-        <v>24.8</v>
+        <v>17.2</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -2116,37 +2120,37 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2">
-        <v>111.2</v>
+        <v>201.3</v>
       </c>
       <c r="F28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2">
-        <v>1070</v>
+        <v>1739</v>
       </c>
       <c r="H28" s="2">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I28" s="2">
-        <v>35.659999999999997</v>
+        <v>29.98</v>
       </c>
       <c r="J28" s="2">
-        <v>9.61</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="K28" s="2">
-        <v>22.2</v>
+        <v>20.8</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -2160,43 +2164,43 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D29" s="2">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2">
-        <v>69.5</v>
+        <v>201</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2">
-        <v>558</v>
+        <v>1742</v>
       </c>
       <c r="H29" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I29" s="2">
-        <v>19.239999999999998</v>
+        <v>37.06</v>
       </c>
       <c r="J29" s="2">
-        <v>7.99</v>
+        <v>8.66</v>
       </c>
       <c r="K29" s="2">
-        <v>14.4</v>
+        <v>25.6</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>16</v>
@@ -2204,40 +2208,40 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2">
-        <v>291</v>
+        <v>190.5</v>
       </c>
       <c r="F30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="2">
-        <v>2388</v>
+        <v>1703</v>
       </c>
       <c r="H30" s="2">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="I30" s="2">
-        <v>27.44</v>
+        <v>34.75</v>
       </c>
       <c r="J30" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.92</v>
       </c>
       <c r="K30" s="2">
-        <v>20</v>
+        <v>23.3</v>
       </c>
       <c r="L30" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -2248,40 +2252,40 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2">
-        <v>278.10000000000002</v>
+        <v>175.4</v>
       </c>
       <c r="F31" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>2221</v>
+        <v>1574</v>
       </c>
       <c r="H31" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I31" s="2">
-        <v>28.84</v>
+        <v>26.23</v>
       </c>
       <c r="J31" s="2">
-        <v>7.98</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K31" s="2">
-        <v>21.6</v>
+        <v>17.5</v>
       </c>
       <c r="L31" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -2292,37 +2296,37 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2">
-        <v>216.2</v>
+        <v>165.1</v>
       </c>
       <c r="F32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>1762</v>
+        <v>1349</v>
       </c>
       <c r="H32" s="2">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I32" s="2">
-        <v>28.88</v>
+        <v>25.94</v>
       </c>
       <c r="J32" s="2">
-        <v>8.14</v>
+        <v>8.16</v>
       </c>
       <c r="K32" s="2">
-        <v>21.2</v>
+        <v>19</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -2336,40 +2340,40 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2">
-        <v>4</v>
+        <v>159.1</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>42</v>
+        <v>1426</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I33" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J33" s="2">
-        <v>10.5</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="K33" s="2">
-        <v>24</v>
+        <v>20.7</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -2380,43 +2384,43 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2">
-        <v>114</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="2">
-        <v>979</v>
+        <v>1171</v>
       </c>
       <c r="H34" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I34" s="2">
-        <v>23.3</v>
+        <v>24.39</v>
       </c>
       <c r="J34" s="2">
-        <v>8.58</v>
+        <v>7.43</v>
       </c>
       <c r="K34" s="2">
-        <v>16.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L34" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>16</v>
@@ -2424,37 +2428,37 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2">
-        <v>86.5</v>
+        <v>145</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>846</v>
+        <v>1162</v>
       </c>
       <c r="H35" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I35" s="2">
-        <v>38.450000000000003</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="J35" s="2">
-        <v>9.74</v>
+        <v>8.01</v>
       </c>
       <c r="K35" s="2">
-        <v>23.6</v>
+        <v>24.8</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -2468,40 +2472,40 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2">
-        <v>34.5</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>343</v>
+        <v>1137</v>
       </c>
       <c r="H36" s="2">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="I36" s="2">
-        <v>31.18</v>
+        <v>22.29</v>
       </c>
       <c r="J36" s="2">
-        <v>9.84</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K36" s="2">
-        <v>19</v>
+        <v>16.2</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -2512,40 +2516,40 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2">
-        <v>476.3</v>
+        <v>128.5</v>
       </c>
       <c r="F37" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>3252</v>
+        <v>1243</v>
       </c>
       <c r="H37" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="I37" s="2">
-        <v>21.82</v>
+        <v>29.59</v>
       </c>
       <c r="J37" s="2">
-        <v>6.82</v>
+        <v>9.64</v>
       </c>
       <c r="K37" s="2">
-        <v>19.100000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="L37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -2556,40 +2560,40 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E38" s="2">
-        <v>303</v>
+        <v>120.3</v>
       </c>
       <c r="F38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
-        <v>2570</v>
+        <v>937</v>
       </c>
       <c r="H38" s="2">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="I38" s="2">
-        <v>21.96</v>
+        <v>26.77</v>
       </c>
       <c r="J38" s="2">
-        <v>8.48</v>
+        <v>7.77</v>
       </c>
       <c r="K38" s="2">
-        <v>15.5</v>
+        <v>20.6</v>
       </c>
       <c r="L38" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -2600,37 +2604,37 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C39" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2">
-        <v>326.2</v>
+        <v>120</v>
       </c>
       <c r="F39" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>2822</v>
+        <v>1069</v>
       </c>
       <c r="H39" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="I39" s="2">
-        <v>30.34</v>
+        <v>28.89</v>
       </c>
       <c r="J39" s="2">
-        <v>8.64</v>
+        <v>8.9</v>
       </c>
       <c r="K39" s="2">
-        <v>21</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="L39" s="2">
         <v>2</v>
@@ -2644,43 +2648,43 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C40" s="2">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E40" s="2">
-        <v>277.2</v>
+        <v>114</v>
       </c>
       <c r="F40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>2141</v>
+        <v>979</v>
       </c>
       <c r="H40" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I40" s="2">
-        <v>28.54</v>
+        <v>23.3</v>
       </c>
       <c r="J40" s="2">
-        <v>7.71</v>
+        <v>8.58</v>
       </c>
       <c r="K40" s="2">
-        <v>22.1</v>
+        <v>16.2</v>
       </c>
       <c r="L40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>16</v>
@@ -2688,37 +2692,37 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E41" s="2">
-        <v>222.3</v>
+        <v>111.2</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="G41" s="2">
-        <v>1974</v>
+        <v>1070</v>
       </c>
       <c r="H41" s="2">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I41" s="2">
-        <v>26.67</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="J41" s="2">
-        <v>8.8699999999999992</v>
+        <v>9.61</v>
       </c>
       <c r="K41" s="2">
-        <v>18</v>
+        <v>22.2</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>
@@ -2732,40 +2736,40 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E42" s="2">
-        <v>222.5</v>
+        <v>109.4</v>
       </c>
       <c r="F42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="2">
-        <v>1969</v>
+        <v>974</v>
       </c>
       <c r="H42" s="2">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I42" s="2">
-        <v>29.38</v>
+        <v>42.34</v>
       </c>
       <c r="J42" s="2">
-        <v>8.83</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K42" s="2">
-        <v>19.899999999999999</v>
+        <v>28.6</v>
       </c>
       <c r="L42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="2">
         <v>0</v>
@@ -2776,37 +2780,37 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E43" s="2">
-        <v>159.1</v>
+        <v>108.1</v>
       </c>
       <c r="F43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="2">
-        <v>1426</v>
+        <v>942</v>
       </c>
       <c r="H43" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I43" s="2">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="J43" s="2">
-        <v>8.9499999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K43" s="2">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
@@ -2820,40 +2824,40 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="2">
         <v>27</v>
       </c>
-      <c r="C44" s="2">
-        <v>6</v>
-      </c>
       <c r="D44" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E44" s="2">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2">
-        <v>181</v>
+        <v>797</v>
       </c>
       <c r="H44" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I44" s="2">
-        <v>90.5</v>
+        <v>31.88</v>
       </c>
       <c r="J44" s="2">
-        <v>10.64</v>
+        <v>7.66</v>
       </c>
       <c r="K44" s="2">
-        <v>51</v>
+        <v>24.9</v>
       </c>
       <c r="L44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="2">
         <v>0</v>
@@ -2864,37 +2868,37 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E45" s="2">
-        <v>54</v>
+        <v>100.3</v>
       </c>
       <c r="F45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="2">
-        <v>448</v>
+        <v>810</v>
       </c>
       <c r="H45" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I45" s="2">
-        <v>17.920000000000002</v>
+        <v>23.14</v>
       </c>
       <c r="J45" s="2">
-        <v>8.2899999999999991</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="K45" s="2">
-        <v>12.9</v>
+        <v>17.2</v>
       </c>
       <c r="L45" s="2">
         <v>1</v>
@@ -2908,37 +2912,37 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C46" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E46" s="2">
-        <v>72.2</v>
+        <v>96.1</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>592</v>
+        <v>920</v>
       </c>
       <c r="H46" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I46" s="2">
-        <v>31.15</v>
+        <v>32.85</v>
       </c>
       <c r="J46" s="2">
-        <v>8.18</v>
+        <v>9.56</v>
       </c>
       <c r="K46" s="2">
-        <v>22.8</v>
+        <v>20.6</v>
       </c>
       <c r="L46" s="2">
         <v>0</v>
@@ -2952,87 +2956,85 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C47" s="2">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E47" s="2">
-        <v>190.5</v>
+        <v>92</v>
       </c>
       <c r="F47" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2">
-        <v>1703</v>
+        <v>748</v>
       </c>
       <c r="H47" s="2">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I47" s="2">
-        <v>34.75</v>
+        <v>21.37</v>
       </c>
       <c r="J47" s="2">
-        <v>8.92</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="K47" s="2">
-        <v>23.3</v>
+        <v>15.7</v>
       </c>
       <c r="L47" s="2">
         <v>1</v>
       </c>
       <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E48" s="2">
-        <v>108.1</v>
+        <v>88.1</v>
       </c>
       <c r="F48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="2">
-        <v>942</v>
+        <v>814</v>
       </c>
       <c r="H48" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I48" s="2">
-        <v>31.4</v>
+        <v>33.909999999999997</v>
       </c>
       <c r="J48" s="2">
-        <v>8.6999999999999993</v>
+        <v>9.23</v>
       </c>
       <c r="K48" s="2">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="L48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>16</v>
@@ -3040,37 +3042,37 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C49" s="2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E49" s="2">
-        <v>157.30000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="F49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>1171</v>
+        <v>846</v>
       </c>
       <c r="H49" s="2">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I49" s="2">
-        <v>24.39</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="J49" s="2">
-        <v>7.43</v>
+        <v>9.74</v>
       </c>
       <c r="K49" s="2">
-        <v>19.600000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="L49" s="2">
         <v>0</v>
@@ -3084,43 +3086,43 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C50" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D50" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E50" s="2">
-        <v>22.1</v>
+        <v>82.1</v>
       </c>
       <c r="F50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="2">
-        <v>231</v>
+        <v>772</v>
       </c>
       <c r="H50" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I50" s="2">
-        <v>33</v>
+        <v>26.62</v>
       </c>
       <c r="J50" s="2">
-        <v>10.42</v>
+        <v>9.39</v>
       </c>
       <c r="K50" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>16</v>
@@ -3128,37 +3130,37 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D51" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E51" s="2">
-        <v>20.100000000000001</v>
+        <v>82</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
       </c>
       <c r="G51" s="2">
-        <v>217</v>
+        <v>659</v>
       </c>
       <c r="H51" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I51" s="2">
-        <v>43.4</v>
+        <v>27.45</v>
       </c>
       <c r="J51" s="2">
-        <v>10.76</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="K51" s="2">
-        <v>24.2</v>
+        <v>20.5</v>
       </c>
       <c r="L51" s="2">
         <v>0</v>
@@ -3172,121 +3174,125 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C52" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E52" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="F52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="2">
-        <v>179</v>
+        <v>689</v>
       </c>
       <c r="H52" s="2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I52" s="2">
-        <v>16.27</v>
+        <v>25.51</v>
       </c>
       <c r="J52" s="2">
-        <v>8.9499999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="K52" s="2">
-        <v>10.9</v>
+        <v>18</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
-        <v>1</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C53" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2">
-        <v>36</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="F53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2">
-        <v>272</v>
+        <v>592</v>
       </c>
       <c r="H53" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I53" s="2">
-        <v>45.33</v>
+        <v>17.41</v>
       </c>
       <c r="J53" s="2">
-        <v>7.55</v>
+        <v>7.87</v>
       </c>
       <c r="K53" s="2">
-        <v>36</v>
+        <v>13.2</v>
       </c>
       <c r="L53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C54" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E54" s="2">
-        <v>212.4</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="F54" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2">
-        <v>1881</v>
+        <v>664</v>
       </c>
       <c r="H54" s="2">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I54" s="2">
-        <v>25.41</v>
+        <v>41.5</v>
       </c>
       <c r="J54" s="2">
-        <v>8.84</v>
+        <v>9.07</v>
       </c>
       <c r="K54" s="2">
-        <v>17.2</v>
+        <v>27.4</v>
       </c>
       <c r="L54" s="2">
         <v>0</v>
@@ -3294,46 +3300,44 @@
       <c r="M54" s="2">
         <v>0</v>
       </c>
-      <c r="N54" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C55" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2">
-        <v>120</v>
+        <v>72.2</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
       </c>
       <c r="G55" s="2">
-        <v>1069</v>
+        <v>592</v>
       </c>
       <c r="H55" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I55" s="2">
-        <v>28.89</v>
+        <v>31.15</v>
       </c>
       <c r="J55" s="2">
-        <v>8.9</v>
+        <v>8.18</v>
       </c>
       <c r="K55" s="2">
-        <v>19.399999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="L55" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55" s="2">
         <v>0</v>
@@ -3344,43 +3348,43 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E56" s="2">
-        <v>5</v>
+        <v>72.2</v>
       </c>
       <c r="F56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="2">
-        <v>57</v>
+        <v>691</v>
       </c>
       <c r="H56" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I56" s="2">
-        <v>57</v>
+        <v>32.9</v>
       </c>
       <c r="J56" s="2">
-        <v>11.4</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="K56" s="2">
-        <v>30</v>
+        <v>20.6</v>
       </c>
       <c r="L56" s="2">
         <v>0</v>
       </c>
       <c r="M56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>16</v>
@@ -3388,37 +3392,37 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2">
-        <v>109.4</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
       </c>
       <c r="G57" s="2">
-        <v>974</v>
+        <v>599</v>
       </c>
       <c r="H57" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I57" s="2">
-        <v>42.34</v>
+        <v>29.95</v>
       </c>
       <c r="J57" s="2">
-        <v>8.8800000000000008</v>
+        <v>8.43</v>
       </c>
       <c r="K57" s="2">
-        <v>28.6</v>
+        <v>21.3</v>
       </c>
       <c r="L57" s="2">
         <v>0</v>
@@ -3432,37 +3436,37 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C58" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2">
-        <v>61</v>
+        <v>70.2</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <v>552</v>
+        <v>713</v>
       </c>
       <c r="H58" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I58" s="2">
-        <v>29.05</v>
+        <v>47.53</v>
       </c>
       <c r="J58" s="2">
-        <v>9.0399999999999991</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="K58" s="2">
-        <v>19.2</v>
+        <v>28.1</v>
       </c>
       <c r="L58" s="2">
         <v>0</v>
@@ -3476,43 +3480,43 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E59" s="2">
-        <v>227.2</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2">
-        <v>2052</v>
+        <v>602</v>
       </c>
       <c r="H59" s="2">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="I59" s="2">
-        <v>27</v>
+        <v>31.68</v>
       </c>
       <c r="J59" s="2">
-        <v>9.02</v>
+        <v>8.6</v>
       </c>
       <c r="K59" s="2">
-        <v>17.899999999999999</v>
+        <v>22.1</v>
       </c>
       <c r="L59" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>16</v>
@@ -3520,37 +3524,37 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E60" s="2">
-        <v>72.2</v>
+        <v>69.5</v>
       </c>
       <c r="F60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2">
-        <v>691</v>
+        <v>558</v>
       </c>
       <c r="H60" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I60" s="2">
-        <v>32.9</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="J60" s="2">
-        <v>9.5500000000000007</v>
+        <v>7.99</v>
       </c>
       <c r="K60" s="2">
-        <v>20.6</v>
+        <v>14.4</v>
       </c>
       <c r="L60" s="2">
         <v>0</v>
@@ -3564,43 +3568,43 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2">
-        <v>32.299999999999997</v>
+        <v>67.2</v>
       </c>
       <c r="F61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="2">
-        <v>339</v>
+        <v>691</v>
       </c>
       <c r="H61" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I61" s="2">
-        <v>37.659999999999997</v>
+        <v>28.79</v>
       </c>
       <c r="J61" s="2">
-        <v>10.43</v>
+        <v>10.26</v>
       </c>
       <c r="K61" s="2">
-        <v>21.6</v>
+        <v>16.8</v>
       </c>
       <c r="L61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>16</v>
@@ -3608,37 +3612,37 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E62" s="2">
-        <v>28</v>
+        <v>66.3</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
       </c>
       <c r="G62" s="2">
-        <v>253</v>
+        <v>694</v>
       </c>
       <c r="H62" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I62" s="2">
-        <v>31.62</v>
+        <v>28.91</v>
       </c>
       <c r="J62" s="2">
-        <v>9.0299999999999994</v>
+        <v>10.43</v>
       </c>
       <c r="K62" s="2">
-        <v>21</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L62" s="2">
         <v>0</v>
@@ -3652,40 +3656,40 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E63" s="2">
-        <v>100.3</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="F63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="2">
-        <v>810</v>
+        <v>612</v>
       </c>
       <c r="H63" s="2">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I63" s="2">
-        <v>23.14</v>
+        <v>32.21</v>
       </c>
       <c r="J63" s="2">
-        <v>8.0500000000000007</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="K63" s="2">
-        <v>17.2</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="2">
         <v>0</v>
@@ -3696,40 +3700,40 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E64" s="2">
-        <v>235.1</v>
+        <v>64.3</v>
       </c>
       <c r="F64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="2">
-        <v>1836</v>
+        <v>591</v>
       </c>
       <c r="H64" s="2">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I64" s="2">
-        <v>29.14</v>
+        <v>23.64</v>
       </c>
       <c r="J64" s="2">
-        <v>7.8</v>
+        <v>9.16</v>
       </c>
       <c r="K64" s="2">
-        <v>22.3</v>
+        <v>15.4</v>
       </c>
       <c r="L64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="2">
         <v>0</v>
@@ -3740,37 +3744,37 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E65" s="2">
-        <v>175.4</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
       </c>
       <c r="G65" s="2">
-        <v>1574</v>
+        <v>581</v>
       </c>
       <c r="H65" s="2">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I65" s="2">
-        <v>26.23</v>
+        <v>23.24</v>
       </c>
       <c r="J65" s="2">
-        <v>8.9600000000000009</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="K65" s="2">
-        <v>17.5</v>
+        <v>15.4</v>
       </c>
       <c r="L65" s="2">
         <v>0</v>
@@ -3784,40 +3788,40 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D66" s="2">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E66" s="2">
-        <v>128.5</v>
+        <v>63.5</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
       </c>
       <c r="G66" s="2">
-        <v>1243</v>
+        <v>586</v>
       </c>
       <c r="H66" s="2">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I66" s="2">
-        <v>29.59</v>
+        <v>30.84</v>
       </c>
       <c r="J66" s="2">
-        <v>9.64</v>
+        <v>9.18</v>
       </c>
       <c r="K66" s="2">
-        <v>18.399999999999999</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="2">
         <v>0</v>
@@ -3828,37 +3832,37 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E67" s="2">
-        <v>70.2</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
       </c>
       <c r="G67" s="2">
-        <v>713</v>
+        <v>552</v>
       </c>
       <c r="H67" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I67" s="2">
-        <v>47.53</v>
+        <v>29.05</v>
       </c>
       <c r="J67" s="2">
-        <v>10.130000000000001</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="K67" s="2">
-        <v>28.1</v>
+        <v>19.2</v>
       </c>
       <c r="L67" s="2">
         <v>0</v>
@@ -3872,40 +3876,40 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E68" s="2">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2">
         <v>0</v>
       </c>
       <c r="G68" s="2">
-        <v>269</v>
+        <v>508</v>
       </c>
       <c r="H68" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I68" s="2">
-        <v>29.88</v>
+        <v>28.22</v>
       </c>
       <c r="J68" s="2">
-        <v>9.6</v>
+        <v>8.61</v>
       </c>
       <c r="K68" s="2">
-        <v>18.600000000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="2">
         <v>0</v>
@@ -3916,40 +3920,40 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E69" s="2">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" s="2">
-        <v>39</v>
+        <v>448</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I69" s="2">
-        <v>39</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="J69" s="2">
-        <v>9.75</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="K69" s="2">
-        <v>24</v>
+        <v>12.9</v>
       </c>
       <c r="L69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="2">
         <v>0</v>
@@ -3960,81 +3964,79 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E70" s="2">
-        <v>71</v>
+        <v>49.2</v>
       </c>
       <c r="F70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="2">
-        <v>599</v>
+        <v>440</v>
       </c>
       <c r="H70" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I70" s="2">
-        <v>29.95</v>
+        <v>27.5</v>
       </c>
       <c r="J70" s="2">
-        <v>8.43</v>
+        <v>8.91</v>
       </c>
       <c r="K70" s="2">
-        <v>21.3</v>
+        <v>18.5</v>
       </c>
       <c r="L70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="2">
         <v>0</v>
       </c>
-      <c r="N70" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C71" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2">
-        <v>64.400000000000006</v>
+        <v>47</v>
       </c>
       <c r="F71" s="2">
         <v>0</v>
       </c>
       <c r="G71" s="2">
-        <v>612</v>
+        <v>432</v>
       </c>
       <c r="H71" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I71" s="2">
-        <v>32.21</v>
+        <v>48</v>
       </c>
       <c r="J71" s="2">
-        <v>9.4600000000000009</v>
+        <v>9.19</v>
       </c>
       <c r="K71" s="2">
-        <v>20.399999999999999</v>
+        <v>31.3</v>
       </c>
       <c r="L71" s="2">
         <v>0</v>
@@ -4048,40 +4050,40 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C72" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E72" s="2">
-        <v>23</v>
+        <v>46.3</v>
       </c>
       <c r="F72" s="2">
         <v>0</v>
       </c>
       <c r="G72" s="2">
-        <v>227</v>
+        <v>451</v>
       </c>
       <c r="H72" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I72" s="2">
-        <v>45.4</v>
+        <v>28.18</v>
       </c>
       <c r="J72" s="2">
-        <v>9.86</v>
+        <v>9.69</v>
       </c>
       <c r="K72" s="2">
-        <v>27.6</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="L72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="2">
         <v>0</v>
@@ -4092,43 +4094,43 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2">
-        <v>10</v>
+        <v>43.4</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
       </c>
       <c r="G73" s="2">
-        <v>91</v>
+        <v>424</v>
       </c>
       <c r="H73" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I73" s="2">
-        <v>45.5</v>
+        <v>22.31</v>
       </c>
       <c r="J73" s="2">
-        <v>9.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="K73" s="2">
-        <v>30</v>
+        <v>13.7</v>
       </c>
       <c r="L73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>16</v>
@@ -4136,37 +4138,37 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E74" s="2">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2">
         <v>0</v>
       </c>
       <c r="G74" s="2">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="H74" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I74" s="2">
-        <v>42</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="J74" s="2">
-        <v>9.33</v>
+        <v>8.65</v>
       </c>
       <c r="K74" s="2">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="L74" s="2">
         <v>0</v>
@@ -4180,85 +4182,87 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C75" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E75" s="2">
-        <v>92</v>
+        <v>40.1</v>
       </c>
       <c r="F75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="2">
-        <v>748</v>
+        <v>387</v>
       </c>
       <c r="H75" s="2">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I75" s="2">
-        <v>21.37</v>
+        <v>27.64</v>
       </c>
       <c r="J75" s="2">
-        <v>8.1300000000000008</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="K75" s="2">
-        <v>15.7</v>
+        <v>17.2</v>
       </c>
       <c r="L75" s="2">
         <v>1</v>
       </c>
       <c r="M75" s="2">
-        <v>1</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C76" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E76" s="2">
-        <v>82.1</v>
+        <v>39</v>
       </c>
       <c r="F76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="2">
-        <v>772</v>
+        <v>329</v>
       </c>
       <c r="H76" s="2">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I76" s="2">
-        <v>26.62</v>
+        <v>32.9</v>
       </c>
       <c r="J76" s="2">
-        <v>9.39</v>
+        <v>8.43</v>
       </c>
       <c r="K76" s="2">
-        <v>17</v>
+        <v>23.4</v>
       </c>
       <c r="L76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>16</v>
@@ -4266,40 +4270,40 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D77" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E77" s="2">
-        <v>59</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F77" s="2">
         <v>0</v>
       </c>
       <c r="G77" s="2">
-        <v>508</v>
+        <v>395</v>
       </c>
       <c r="H77" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I77" s="2">
-        <v>28.22</v>
+        <v>30.38</v>
       </c>
       <c r="J77" s="2">
-        <v>8.61</v>
+        <v>10.25</v>
       </c>
       <c r="K77" s="2">
-        <v>19.600000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="L77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" s="2">
         <v>0</v>
@@ -4310,40 +4314,40 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C78" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E78" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F78" s="2">
         <v>0</v>
       </c>
       <c r="G78" s="2">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="H78" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I78" s="2">
-        <v>52.33</v>
+        <v>30.81</v>
       </c>
       <c r="J78" s="2">
-        <v>10.46</v>
+        <v>8.92</v>
       </c>
       <c r="K78" s="2">
-        <v>30</v>
+        <v>20.7</v>
       </c>
       <c r="L78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" s="2">
         <v>0</v>
@@ -4354,37 +4358,37 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D79" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E79" s="2">
+        <v>36</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>272</v>
+      </c>
+      <c r="H79" s="2">
         <v>6</v>
       </c>
-      <c r="F79" s="2">
-        <v>0</v>
-      </c>
-      <c r="G79" s="2">
-        <v>38</v>
-      </c>
-      <c r="H79" s="2">
-        <v>2</v>
-      </c>
       <c r="I79" s="2">
-        <v>19</v>
+        <v>45.33</v>
       </c>
       <c r="J79" s="2">
-        <v>6.33</v>
+        <v>7.55</v>
       </c>
       <c r="K79" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L79" s="2">
         <v>0</v>
@@ -4392,43 +4396,41 @@
       <c r="M79" s="2">
         <v>0</v>
       </c>
-      <c r="N79" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D80" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E80" s="2">
-        <v>26.5</v>
+        <v>34.5</v>
       </c>
       <c r="F80" s="2">
         <v>0</v>
       </c>
       <c r="G80" s="2">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="H80" s="2">
         <v>11</v>
       </c>
       <c r="I80" s="2">
-        <v>22.72</v>
+        <v>31.18</v>
       </c>
       <c r="J80" s="2">
-        <v>9.31</v>
+        <v>9.84</v>
       </c>
       <c r="K80" s="2">
-        <v>14.6</v>
+        <v>19</v>
       </c>
       <c r="L80" s="2">
         <v>0</v>
@@ -4442,37 +4444,37 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C81" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E81" s="2">
-        <v>39</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F81" s="2">
         <v>0</v>
       </c>
       <c r="G81" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H81" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I81" s="2">
-        <v>32.9</v>
+        <v>46.71</v>
       </c>
       <c r="J81" s="2">
-        <v>8.43</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="K81" s="2">
-        <v>23.4</v>
+        <v>29.5</v>
       </c>
       <c r="L81" s="2">
         <v>0</v>
@@ -4486,40 +4488,40 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D82" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E82" s="2">
-        <v>25.2</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F82" s="2">
         <v>0</v>
       </c>
       <c r="G82" s="2">
-        <v>227</v>
+        <v>341</v>
       </c>
       <c r="H82" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I82" s="2">
-        <v>37.83</v>
+        <v>26.23</v>
       </c>
       <c r="J82" s="2">
-        <v>8.9600000000000009</v>
+        <v>10.17</v>
       </c>
       <c r="K82" s="2">
-        <v>25.3</v>
+        <v>15.4</v>
       </c>
       <c r="L82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" s="2">
         <v>0</v>
@@ -4530,40 +4532,40 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C83" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D83" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E83" s="2">
-        <v>75.099999999999994</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="F83" s="2">
         <v>0</v>
       </c>
       <c r="G83" s="2">
-        <v>592</v>
+        <v>339</v>
       </c>
       <c r="H83" s="2">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I83" s="2">
-        <v>17.41</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="J83" s="2">
-        <v>7.87</v>
+        <v>10.43</v>
       </c>
       <c r="K83" s="2">
-        <v>13.2</v>
+        <v>21.6</v>
       </c>
       <c r="L83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" s="2">
         <v>0</v>
@@ -4574,37 +4576,37 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C84" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D84" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E84" s="2">
-        <v>96.1</v>
+        <v>30</v>
       </c>
       <c r="F84" s="2">
         <v>0</v>
       </c>
       <c r="G84" s="2">
-        <v>920</v>
+        <v>259</v>
       </c>
       <c r="H84" s="2">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I84" s="2">
-        <v>32.85</v>
+        <v>28.77</v>
       </c>
       <c r="J84" s="2">
-        <v>9.56</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="K84" s="2">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="L84" s="2">
         <v>0</v>
@@ -4618,40 +4620,40 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C85" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D85" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E85" s="2">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F85" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" s="2">
-        <v>689</v>
+        <v>253</v>
       </c>
       <c r="H85" s="2">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I85" s="2">
-        <v>25.51</v>
+        <v>31.62</v>
       </c>
       <c r="J85" s="2">
-        <v>8.5</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="K85" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" s="2">
         <v>0</v>
@@ -4662,37 +4664,37 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C86" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2">
-        <v>64.099999999999994</v>
+        <v>28</v>
       </c>
       <c r="F86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="2">
-        <v>581</v>
+        <v>269</v>
       </c>
       <c r="H86" s="2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I86" s="2">
-        <v>23.24</v>
+        <v>29.88</v>
       </c>
       <c r="J86" s="2">
-        <v>9.0500000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="K86" s="2">
-        <v>15.4</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L86" s="2">
         <v>0</v>
@@ -4706,40 +4708,40 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C87" s="2">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E87" s="2">
-        <v>104</v>
+        <v>27.2</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
       </c>
       <c r="G87" s="2">
-        <v>797</v>
+        <v>319</v>
       </c>
       <c r="H87" s="2">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I87" s="2">
-        <v>31.88</v>
+        <v>45.57</v>
       </c>
       <c r="J87" s="2">
-        <v>7.66</v>
+        <v>11.67</v>
       </c>
       <c r="K87" s="2">
-        <v>24.9</v>
+        <v>23.4</v>
       </c>
       <c r="L87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87" s="2">
         <v>0</v>
@@ -4750,37 +4752,37 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E88" s="2">
-        <v>63.5</v>
+        <v>26.5</v>
       </c>
       <c r="F88" s="2">
         <v>0</v>
       </c>
       <c r="G88" s="2">
-        <v>586</v>
+        <v>250</v>
       </c>
       <c r="H88" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I88" s="2">
-        <v>30.84</v>
+        <v>22.72</v>
       </c>
       <c r="J88" s="2">
-        <v>9.18</v>
+        <v>9.31</v>
       </c>
       <c r="K88" s="2">
-        <v>20.100000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="L88" s="2">
         <v>0</v>
@@ -4794,40 +4796,40 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D89" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E89" s="2">
-        <v>46.3</v>
+        <v>26</v>
       </c>
       <c r="F89" s="2">
         <v>0</v>
       </c>
       <c r="G89" s="2">
-        <v>451</v>
+        <v>257</v>
       </c>
       <c r="H89" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I89" s="2">
-        <v>28.18</v>
+        <v>32.119999999999997</v>
       </c>
       <c r="J89" s="2">
-        <v>9.69</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="K89" s="2">
-        <v>17.399999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="L89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" s="2">
         <v>0</v>
@@ -4838,40 +4840,40 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D90" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E90" s="2">
-        <v>40.1</v>
+        <v>25.2</v>
       </c>
       <c r="F90" s="2">
         <v>0</v>
       </c>
       <c r="G90" s="2">
-        <v>387</v>
+        <v>227</v>
       </c>
       <c r="H90" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I90" s="2">
-        <v>27.64</v>
+        <v>37.83</v>
       </c>
       <c r="J90" s="2">
-        <v>9.6300000000000008</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K90" s="2">
-        <v>17.2</v>
+        <v>25.3</v>
       </c>
       <c r="L90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" s="2">
         <v>0</v>
@@ -4882,37 +4884,37 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D91" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E91" s="2">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F91" s="2">
         <v>0</v>
       </c>
       <c r="G91" s="2">
-        <v>432</v>
+        <v>227</v>
       </c>
       <c r="H91" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I91" s="2">
-        <v>48</v>
+        <v>45.4</v>
       </c>
       <c r="J91" s="2">
-        <v>9.19</v>
+        <v>9.86</v>
       </c>
       <c r="K91" s="2">
-        <v>31.3</v>
+        <v>27.6</v>
       </c>
       <c r="L91" s="2">
         <v>0</v>
@@ -4926,37 +4928,37 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D92" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E92" s="2">
-        <v>30</v>
+        <v>22.1</v>
       </c>
       <c r="F92" s="2">
         <v>0</v>
       </c>
       <c r="G92" s="2">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="H92" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I92" s="2">
-        <v>28.77</v>
+        <v>33</v>
       </c>
       <c r="J92" s="2">
-        <v>8.6300000000000008</v>
+        <v>10.42</v>
       </c>
       <c r="K92" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L92" s="2">
         <v>0</v>
@@ -4970,37 +4972,37 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D93" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93" s="2">
-        <v>27.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="2">
-        <v>319</v>
+        <v>217</v>
       </c>
       <c r="H93" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I93" s="2">
-        <v>45.57</v>
+        <v>43.4</v>
       </c>
       <c r="J93" s="2">
-        <v>11.67</v>
+        <v>10.76</v>
       </c>
       <c r="K93" s="2">
-        <v>23.4</v>
+        <v>24.2</v>
       </c>
       <c r="L93" s="2">
         <v>0</v>
@@ -5014,37 +5016,37 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C94" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E94" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F94" s="2">
         <v>0</v>
       </c>
       <c r="G94" s="2">
+        <v>181</v>
+      </c>
+      <c r="H94" s="2">
+        <v>3</v>
+      </c>
+      <c r="I94" s="2">
+        <v>60.33</v>
+      </c>
+      <c r="J94" s="2">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="K94" s="2">
         <v>40</v>
-      </c>
-      <c r="H94" s="2">
-        <v>1</v>
-      </c>
-      <c r="I94" s="2">
-        <v>40</v>
-      </c>
-      <c r="J94" s="2">
-        <v>10</v>
-      </c>
-      <c r="K94" s="2">
-        <v>24</v>
       </c>
       <c r="L94" s="2">
         <v>0</v>
@@ -5058,81 +5060,79 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="C95" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E95" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="2">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="H95" s="2">
-        <v>0</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>171</v>
+        <v>11</v>
+      </c>
+      <c r="I95" s="2">
+        <v>16.27</v>
       </c>
       <c r="J95" s="2">
-        <v>8.25</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>171</v>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="K95" s="2">
+        <v>10.9</v>
       </c>
       <c r="L95" s="2">
         <v>0</v>
       </c>
       <c r="M95" s="2">
-        <v>0</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="C96" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D96" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E96" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F96" s="2">
         <v>0</v>
       </c>
       <c r="G96" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="H96" s="2">
-        <v>0</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>171</v>
+        <v>2</v>
+      </c>
+      <c r="I96" s="2">
+        <v>90.5</v>
       </c>
       <c r="J96" s="2">
-        <v>14</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>171</v>
+        <v>10.64</v>
+      </c>
+      <c r="K96" s="2">
+        <v>51</v>
       </c>
       <c r="L96" s="2">
         <v>0</v>
@@ -5146,37 +5146,37 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D97" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E97" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F97" s="2">
         <v>0</v>
       </c>
       <c r="G97" s="2">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="H97" s="2">
-        <v>0</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>171</v>
+        <v>5</v>
+      </c>
+      <c r="I97" s="2">
+        <v>36.4</v>
       </c>
       <c r="J97" s="2">
-        <v>14.5</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>171</v>
+        <v>10.7</v>
+      </c>
+      <c r="K97" s="2">
+        <v>20.399999999999999</v>
       </c>
       <c r="L97" s="2">
         <v>0</v>
@@ -5190,40 +5190,40 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D98" s="2">
+        <v>5</v>
+      </c>
+      <c r="E98" s="2">
         <v>17</v>
       </c>
-      <c r="E98" s="2">
-        <v>64.3</v>
-      </c>
       <c r="F98" s="2">
         <v>0</v>
       </c>
       <c r="G98" s="2">
-        <v>591</v>
+        <v>145</v>
       </c>
       <c r="H98" s="2">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I98" s="2">
-        <v>23.64</v>
+        <v>20.71</v>
       </c>
       <c r="J98" s="2">
-        <v>9.16</v>
+        <v>8.52</v>
       </c>
       <c r="K98" s="2">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="L98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98" s="2">
         <v>0</v>
@@ -5234,37 +5234,37 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C99" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D99" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E99" s="2">
-        <v>66.3</v>
+        <v>16</v>
       </c>
       <c r="F99" s="2">
         <v>0</v>
       </c>
       <c r="G99" s="2">
-        <v>694</v>
+        <v>151</v>
       </c>
       <c r="H99" s="2">
+        <v>4</v>
+      </c>
+      <c r="I99" s="2">
+        <v>37.75</v>
+      </c>
+      <c r="J99" s="2">
+        <v>9.43</v>
+      </c>
+      <c r="K99" s="2">
         <v>24</v>
-      </c>
-      <c r="I99" s="2">
-        <v>28.91</v>
-      </c>
-      <c r="J99" s="2">
-        <v>10.43</v>
-      </c>
-      <c r="K99" s="2">
-        <v>16.600000000000001</v>
       </c>
       <c r="L99" s="2">
         <v>0</v>
@@ -5278,37 +5278,37 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C100" s="2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D100" s="2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E100" s="2">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="F100" s="2">
         <v>0</v>
       </c>
       <c r="G100" s="2">
-        <v>659</v>
+        <v>157</v>
       </c>
       <c r="H100" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I100" s="2">
-        <v>27.45</v>
+        <v>52.33</v>
       </c>
       <c r="J100" s="2">
-        <v>8.0299999999999994</v>
+        <v>10.46</v>
       </c>
       <c r="K100" s="2">
-        <v>20.5</v>
+        <v>30</v>
       </c>
       <c r="L100" s="2">
         <v>0</v>
@@ -5322,43 +5322,43 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C101" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D101" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E101" s="2">
-        <v>67.2</v>
+        <v>12.1</v>
       </c>
       <c r="F101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" s="2">
-        <v>691</v>
+        <v>114</v>
       </c>
       <c r="H101" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I101" s="2">
-        <v>28.79</v>
+        <v>38</v>
       </c>
       <c r="J101" s="2">
-        <v>10.26</v>
+        <v>9.36</v>
       </c>
       <c r="K101" s="2">
-        <v>16.8</v>
+        <v>24.3</v>
       </c>
       <c r="L101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>16</v>
@@ -5366,43 +5366,43 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C102" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D102" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E102" s="2">
-        <v>43.4</v>
+        <v>12.1</v>
       </c>
       <c r="F102" s="2">
         <v>0</v>
       </c>
       <c r="G102" s="2">
-        <v>424</v>
+        <v>85</v>
       </c>
       <c r="H102" s="2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I102" s="2">
-        <v>22.31</v>
+        <v>12.14</v>
       </c>
       <c r="J102" s="2">
-        <v>9.6999999999999993</v>
+        <v>6.98</v>
       </c>
       <c r="K102" s="2">
-        <v>13.7</v>
+        <v>10.4</v>
       </c>
       <c r="L102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>16</v>
@@ -5410,37 +5410,37 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C103" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D103" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E103" s="2">
-        <v>38.299999999999997</v>
+        <v>10</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
       </c>
       <c r="G103" s="2">
-        <v>395</v>
+        <v>91</v>
       </c>
       <c r="H103" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I103" s="2">
-        <v>30.38</v>
+        <v>45.5</v>
       </c>
       <c r="J103" s="2">
-        <v>10.25</v>
+        <v>9.1</v>
       </c>
       <c r="K103" s="2">
-        <v>17.7</v>
+        <v>30</v>
       </c>
       <c r="L103" s="2">
         <v>0</v>
@@ -5454,40 +5454,40 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C104" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D104" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E104" s="2">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F104" s="2">
         <v>0</v>
       </c>
       <c r="G104" s="2">
-        <v>339</v>
+        <v>86</v>
       </c>
       <c r="H104" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I104" s="2">
-        <v>30.81</v>
+        <v>86</v>
       </c>
       <c r="J104" s="2">
-        <v>8.92</v>
+        <v>8.6</v>
       </c>
       <c r="K104" s="2">
-        <v>20.7</v>
+        <v>60</v>
       </c>
       <c r="L104" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104" s="2">
         <v>0</v>
@@ -5498,37 +5498,37 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C105" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D105" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E105" s="2">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F105" s="2">
         <v>0</v>
       </c>
       <c r="G105" s="2">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="H105" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I105" s="2">
-        <v>37.200000000000003</v>
+        <v>42</v>
       </c>
       <c r="J105" s="2">
-        <v>8.65</v>
+        <v>9.33</v>
       </c>
       <c r="K105" s="2">
-        <v>25.8</v>
+        <v>27</v>
       </c>
       <c r="L105" s="2">
         <v>0</v>
@@ -5542,37 +5542,37 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D106" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E106" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F106" s="2">
         <v>0</v>
       </c>
       <c r="G106" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="H106" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I106" s="2">
-        <v>36.4</v>
+        <v>71</v>
       </c>
       <c r="J106" s="2">
-        <v>10.7</v>
+        <v>7.88</v>
       </c>
       <c r="K106" s="2">
-        <v>20.399999999999999</v>
+        <v>54</v>
       </c>
       <c r="L106" s="2">
         <v>0</v>
@@ -5586,37 +5586,37 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="C107" s="2">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="D107" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E107" s="2">
-        <v>12.1</v>
+        <v>8</v>
       </c>
       <c r="F107" s="2">
         <v>0</v>
       </c>
       <c r="G107" s="2">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="H107" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107" s="2">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="J107" s="2">
-        <v>9.36</v>
+        <v>8.25</v>
       </c>
       <c r="K107" s="2">
-        <v>24.3</v>
+        <v>12</v>
       </c>
       <c r="L107" s="2">
         <v>0</v>
@@ -5624,16 +5624,14 @@
       <c r="M107" s="2">
         <v>0</v>
       </c>
-      <c r="N107" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="N107" s="2"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2">
         <v>2</v>
@@ -5642,25 +5640,25 @@
         <v>2</v>
       </c>
       <c r="E108" s="2">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F108" s="2">
         <v>0</v>
       </c>
       <c r="G108" s="2">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H108" s="2">
-        <v>0</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>171</v>
+        <v>1</v>
+      </c>
+      <c r="I108" s="2">
+        <v>71</v>
       </c>
       <c r="J108" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>171</v>
+        <v>9.06</v>
+      </c>
+      <c r="K108" s="2">
+        <v>47</v>
       </c>
       <c r="L108" s="2">
         <v>0</v>
@@ -5674,37 +5672,37 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D109" s="2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E109" s="2">
-        <v>73.099999999999994</v>
+        <v>6</v>
       </c>
       <c r="F109" s="2">
         <v>0</v>
       </c>
       <c r="G109" s="2">
-        <v>664</v>
+        <v>38</v>
       </c>
       <c r="H109" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I109" s="2">
-        <v>41.5</v>
+        <v>19</v>
       </c>
       <c r="J109" s="2">
-        <v>9.07</v>
+        <v>6.33</v>
       </c>
       <c r="K109" s="2">
-        <v>27.4</v>
+        <v>18</v>
       </c>
       <c r="L109" s="2">
         <v>0</v>
@@ -5712,44 +5710,46 @@
       <c r="M109" s="2">
         <v>0</v>
       </c>
-      <c r="N109" s="2"/>
+      <c r="N109" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C110" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D110" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E110" s="2">
-        <v>33.299999999999997</v>
+        <v>6</v>
       </c>
       <c r="F110" s="2">
         <v>0</v>
       </c>
       <c r="G110" s="2">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="H110" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I110" s="2">
-        <v>26.23</v>
+        <v>19.5</v>
       </c>
       <c r="J110" s="2">
-        <v>10.17</v>
+        <v>6.5</v>
       </c>
       <c r="K110" s="2">
-        <v>15.4</v>
+        <v>18</v>
       </c>
       <c r="L110" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" s="2">
         <v>0</v>
@@ -5760,37 +5760,37 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C111" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D111" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E111" s="2">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F111" s="2">
         <v>0</v>
       </c>
       <c r="G111" s="2">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="H111" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I111" s="2">
-        <v>32.119999999999997</v>
+        <v>89</v>
       </c>
       <c r="J111" s="2">
-        <v>9.8800000000000008</v>
+        <v>14.83</v>
       </c>
       <c r="K111" s="2">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="L111" s="2">
         <v>0</v>
@@ -5804,37 +5804,37 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2">
+        <v>2</v>
+      </c>
+      <c r="E112" s="2">
         <v>6</v>
       </c>
-      <c r="D112" s="2">
-        <v>5</v>
-      </c>
-      <c r="E112" s="2">
-        <v>17</v>
-      </c>
       <c r="F112" s="2">
         <v>0</v>
       </c>
       <c r="G112" s="2">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="H112" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I112" s="2">
-        <v>20.71</v>
+        <v>72</v>
       </c>
       <c r="J112" s="2">
-        <v>8.52</v>
+        <v>12</v>
       </c>
       <c r="K112" s="2">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="L112" s="2">
         <v>0</v>
@@ -5848,37 +5848,37 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C113" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E113" s="2">
-        <v>12.1</v>
+        <v>6</v>
       </c>
       <c r="F113" s="2">
         <v>0</v>
       </c>
       <c r="G113" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H113" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I113" s="2">
-        <v>12.14</v>
+        <v>93</v>
       </c>
       <c r="J113" s="2">
-        <v>6.98</v>
+        <v>15.5</v>
       </c>
       <c r="K113" s="2">
-        <v>10.4</v>
+        <v>36</v>
       </c>
       <c r="L113" s="2">
         <v>0</v>
@@ -5892,37 +5892,37 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C114" s="2">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2">
+        <v>2</v>
+      </c>
+      <c r="E114" s="2">
         <v>5</v>
       </c>
-      <c r="D114" s="2">
-        <v>5</v>
-      </c>
-      <c r="E114" s="2">
-        <v>16</v>
-      </c>
       <c r="F114" s="2">
         <v>0</v>
       </c>
       <c r="G114" s="2">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="H114" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I114" s="2">
-        <v>37.75</v>
+        <v>57</v>
       </c>
       <c r="J114" s="2">
-        <v>9.43</v>
+        <v>11.4</v>
       </c>
       <c r="K114" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L114" s="2">
         <v>0</v>
@@ -5936,37 +5936,37 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F115" s="2">
         <v>0</v>
       </c>
       <c r="G115" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H115" s="2">
-        <v>2</v>
-      </c>
-      <c r="I115" s="2">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="J115" s="2">
-        <v>9</v>
-      </c>
-      <c r="K115" s="2">
-        <v>12</v>
+        <v>11.4</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="L115" s="2">
         <v>0</v>
@@ -5980,37 +5980,37 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C116" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F116" s="2">
         <v>0</v>
       </c>
       <c r="G116" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H116" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" s="2">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="J116" s="2">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="K116" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L116" s="2">
         <v>0</v>
@@ -6024,37 +6024,37 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" s="2">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="F117" s="2">
         <v>0</v>
       </c>
       <c r="G117" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H117" s="2">
         <v>1</v>
       </c>
       <c r="I117" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="J117" s="2">
-        <v>9.06</v>
+        <v>9.75</v>
       </c>
       <c r="K117" s="2">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L117" s="2">
         <v>0</v>
@@ -6068,37 +6068,37 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F118" s="2">
         <v>0</v>
       </c>
       <c r="G118" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H118" s="2">
         <v>1</v>
       </c>
       <c r="I118" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="J118" s="2">
-        <v>14.83</v>
+        <v>10</v>
       </c>
       <c r="K118" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L118" s="2">
         <v>0</v>
@@ -6112,37 +6112,37 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C119" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E119" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F119" s="2">
         <v>0</v>
       </c>
       <c r="G119" s="2">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="H119" s="2">
-        <v>1</v>
-      </c>
-      <c r="I119" s="2">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="J119" s="2">
-        <v>7.88</v>
-      </c>
-      <c r="K119" s="2">
-        <v>54</v>
+        <v>8.25</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="L119" s="2">
         <v>0</v>
@@ -6156,37 +6156,37 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C120" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E120" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F120" s="2">
         <v>0</v>
       </c>
       <c r="G120" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H120" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" s="2">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J120" s="2">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="K120" s="2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="L120" s="2">
         <v>0</v>
@@ -6200,37 +6200,37 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F121" s="2">
         <v>0</v>
       </c>
       <c r="G121" s="2">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H121" s="2">
-        <v>1</v>
-      </c>
-      <c r="I121" s="2">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="J121" s="2">
-        <v>12</v>
-      </c>
-      <c r="K121" s="2">
-        <v>36</v>
+        <v>11.75</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="L121" s="2">
         <v>0</v>
@@ -6244,37 +6244,37 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F122" s="2">
         <v>0</v>
       </c>
       <c r="G122" s="2">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="H122" s="2">
-        <v>1</v>
-      </c>
-      <c r="I122" s="2">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="J122" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="K122" s="2">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="L122" s="2">
         <v>0</v>
@@ -6288,10 +6288,10 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C123" s="2">
         <v>1</v>
@@ -6300,13 +6300,13 @@
         <v>1</v>
       </c>
       <c r="E123" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F123" s="2">
         <v>0</v>
       </c>
       <c r="G123" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>171</v>
       </c>
       <c r="J123" s="2">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>171</v>
@@ -6375,8 +6375,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N312">
-    <sortCondition ref="B107:B312"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N124">
+    <sortCondition descending="1" ref="E1:E124"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
